--- a/T3 - Incertidumbres, ODE/T3.xlsx
+++ b/T3 - Incertidumbres, ODE/T3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/c_espejo_uniandes_edu_co/Documents/Herramientas Computacionales/Taller_1_HC_2023/T3 - Incertidumbres, ODE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="194" documentId="11_F25DC773A252ABDACC104848699D60565BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90805952-4C1F-434C-99C2-8E9D241AAF2A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Punto de operación </t>
+  </si>
+  <si>
+    <t>Velocidad angular del tunel [rpm]</t>
+  </si>
+  <si>
+    <t>Presion total [hPa]</t>
+  </si>
+  <si>
+    <t>Presion estatica [hPa]</t>
+  </si>
+  <si>
+    <t>Temperatura [°C]</t>
+  </si>
+  <si>
+    <t>tabla 2 Mediciones de temperatura.</t>
+  </si>
+  <si>
+    <t>tabla 1 Mediciones de presiones</t>
+  </si>
+  <si>
+    <t>Tabla 3. Mediciones de humedad relativa</t>
+  </si>
+  <si>
+    <t>Humedad relativa [%]</t>
+  </si>
+  <si>
+    <t>tabla 4 Mediciones de Voltaje y corriente</t>
+  </si>
+  <si>
+    <t>Voltaje [V]</t>
+  </si>
+  <si>
+    <t>Corriente [A]</t>
+  </si>
+  <si>
+    <t>Tabla 5. Datos presión de vapor.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +78,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +108,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +463,817 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4">
+        <v>741.63</v>
+      </c>
+      <c r="E4" s="4">
+        <v>741.62</v>
+      </c>
+      <c r="F4" s="4">
+        <v>741.62</v>
+      </c>
+      <c r="G4" s="4">
+        <v>741.58</v>
+      </c>
+      <c r="H4" s="4">
+        <v>741.59</v>
+      </c>
+      <c r="I4" s="4">
+        <v>741.58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>150</v>
+      </c>
+      <c r="D5" s="4">
+        <v>741.8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>741.8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>741.8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>741.68</v>
+      </c>
+      <c r="H5" s="4">
+        <v>741.71</v>
+      </c>
+      <c r="I5" s="4">
+        <v>741.71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>200</v>
+      </c>
+      <c r="D6" s="4">
+        <v>741.95</v>
+      </c>
+      <c r="E6" s="4">
+        <v>741.94</v>
+      </c>
+      <c r="F6" s="4">
+        <v>741.94</v>
+      </c>
+      <c r="G6" s="4">
+        <v>741.78</v>
+      </c>
+      <c r="H6" s="4">
+        <v>741.78</v>
+      </c>
+      <c r="I6" s="4">
+        <v>741.77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>250</v>
+      </c>
+      <c r="D7" s="4">
+        <v>742.12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>741.15</v>
+      </c>
+      <c r="F7" s="4">
+        <v>742.16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>741.84</v>
+      </c>
+      <c r="H7" s="4">
+        <v>741.86</v>
+      </c>
+      <c r="I7" s="4">
+        <v>741.87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>300</v>
+      </c>
+      <c r="D8" s="4">
+        <v>742.41</v>
+      </c>
+      <c r="E8" s="4">
+        <v>742.43</v>
+      </c>
+      <c r="F8" s="4">
+        <v>742.42</v>
+      </c>
+      <c r="G8" s="4">
+        <v>741.98</v>
+      </c>
+      <c r="H8" s="4">
+        <v>741.99</v>
+      </c>
+      <c r="I8" s="4">
+        <v>741.98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>350</v>
+      </c>
+      <c r="D9" s="4">
+        <v>742.73</v>
+      </c>
+      <c r="E9" s="4">
+        <v>742.74</v>
+      </c>
+      <c r="F9" s="4">
+        <v>742.74</v>
+      </c>
+      <c r="G9" s="4">
+        <v>742.07</v>
+      </c>
+      <c r="H9" s="4">
+        <v>742.06</v>
+      </c>
+      <c r="I9" s="4">
+        <v>742.12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100</v>
+      </c>
+      <c r="D14" s="4">
+        <v>20.57</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20.57</v>
+      </c>
+      <c r="F14" s="4">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>150</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20.63</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20.63</v>
+      </c>
+      <c r="F15" s="4">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>200</v>
+      </c>
+      <c r="D16" s="4">
+        <v>20.69</v>
+      </c>
+      <c r="E16" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="F16" s="4">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4">
+        <v>250</v>
+      </c>
+      <c r="D17" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20.83</v>
+      </c>
+      <c r="F17" s="4">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>300</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20.29</v>
+      </c>
+      <c r="E18" s="4">
+        <v>20.97</v>
+      </c>
+      <c r="F18" s="4">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
+        <v>350</v>
+      </c>
+      <c r="D19" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>21.11</v>
+      </c>
+      <c r="F19" s="4">
+        <v>21.14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>100</v>
+      </c>
+      <c r="D24" s="4">
+        <v>52.6</v>
+      </c>
+      <c r="E24" s="4">
+        <v>52.61</v>
+      </c>
+      <c r="F24" s="4">
+        <v>52.59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>150</v>
+      </c>
+      <c r="D25" s="4">
+        <v>51.75</v>
+      </c>
+      <c r="E25" s="4">
+        <v>51.78</v>
+      </c>
+      <c r="F25" s="4">
+        <v>51.73</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>200</v>
+      </c>
+      <c r="D26" s="4">
+        <v>50.96</v>
+      </c>
+      <c r="E26" s="4">
+        <v>50.97</v>
+      </c>
+      <c r="F26" s="4">
+        <v>50.99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
+        <v>250</v>
+      </c>
+      <c r="D27" s="4">
+        <v>50.25</v>
+      </c>
+      <c r="E27" s="4">
+        <v>49.86</v>
+      </c>
+      <c r="F27" s="4">
+        <v>49.83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>300</v>
+      </c>
+      <c r="D28" s="4">
+        <v>48.73</v>
+      </c>
+      <c r="E28" s="4">
+        <v>48.81</v>
+      </c>
+      <c r="F28" s="4">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4">
+        <v>350</v>
+      </c>
+      <c r="D29" s="4">
+        <v>48.13</v>
+      </c>
+      <c r="E29" s="4">
+        <v>48.11</v>
+      </c>
+      <c r="F29" s="4">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>100</v>
+      </c>
+      <c r="D34" s="4">
+        <v>12.55</v>
+      </c>
+      <c r="E34" s="4">
+        <v>12.55</v>
+      </c>
+      <c r="F34" s="4">
+        <v>12.55</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>150</v>
+      </c>
+      <c r="D35" s="4">
+        <v>12.56</v>
+      </c>
+      <c r="E35" s="4">
+        <v>12.56</v>
+      </c>
+      <c r="F35" s="4">
+        <v>12.56</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H35" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I35" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4">
+        <v>200</v>
+      </c>
+      <c r="D36" s="4">
+        <v>12.66</v>
+      </c>
+      <c r="E36" s="4">
+        <v>12.66</v>
+      </c>
+      <c r="F36" s="4">
+        <v>12.66</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4">
+        <v>250</v>
+      </c>
+      <c r="D37" s="4">
+        <v>12.84</v>
+      </c>
+      <c r="E37" s="4">
+        <v>12.86</v>
+      </c>
+      <c r="F37" s="4">
+        <v>12.86</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4">
+        <v>300</v>
+      </c>
+      <c r="D38" s="4">
+        <v>13.05</v>
+      </c>
+      <c r="E38" s="4">
+        <v>13.05</v>
+      </c>
+      <c r="F38" s="4">
+        <v>13.06</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1.552</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4">
+        <v>350</v>
+      </c>
+      <c r="D39" s="4">
+        <v>13.13</v>
+      </c>
+      <c r="E39" s="4">
+        <v>13.13</v>
+      </c>
+      <c r="F39" s="4">
+        <v>13.13</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1.835</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1.8169999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2424.1729999999998</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2424.1729999999998</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2424.1729999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2433.107</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2433.107</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2433.107</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2442.0410000000002</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2443.5300000000002</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2443.5300000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2458.42</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2462.8870000000002</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2462.8870000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>5</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2382.4810000000002</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2483.7330000000002</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2486.7109999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2503.91</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2505.4810000000002</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2510.194</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:F12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>